--- a/Collections/EURO/Greece/#EURO#Greece#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Greece/#EURO#Greece#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B787C75-EB7A-4945-AAAC-F7FDE49E1425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A164A3-D17F-44E0-882D-FCE4CC097010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -236,9 +236,6 @@
 Ornamental leaf</t>
   </si>
   <si>
-    <t>25th Centenary of the Battle of Thermopylae</t>
-  </si>
-  <si>
     <t>100th anniversary of the union of Thrace with Greece</t>
   </si>
   <si>
@@ -267,6 +264,9 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>2500th Anniversary of the Battle of Thermopylae</t>
   </si>
 </sst>
 </file>
@@ -957,7 +957,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>1</v>
@@ -1339,7 +1339,7 @@
         <v>27</v>
       </c>
       <c r="F16" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1567,7 +1567,7 @@
         <v>2020</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>51</v>
@@ -1579,7 +1579,7 @@
         <v>27</v>
       </c>
       <c r="F26" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="9" t="str">
         <f t="shared" ref="G26:G27" si="2">IF(OR(AND(F26&gt;1,F26&lt;&gt;"-")),"Can exchange","")</f>
@@ -1591,7 +1591,7 @@
         <v>2020</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="25" t="s">
         <v>51</v>
@@ -1615,7 +1615,7 @@
         <v>2021</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>51</v>
@@ -1624,7 +1624,7 @@
         <v>18</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F28" s="8">
         <v>1</v>
@@ -1639,7 +1639,7 @@
         <v>2022</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>51</v>
@@ -1651,7 +1651,7 @@
         <v>27</v>
       </c>
       <c r="F29" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="9" t="str">
         <f t="shared" ref="G29:G30" si="4">IF(OR(AND(F29&gt;1,F29&lt;&gt;"-")),"Can exchange","")</f>
@@ -1663,7 +1663,7 @@
         <v>2022</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="25" t="s">
         <v>51</v>
@@ -1675,7 +1675,7 @@
         <v>27</v>
       </c>
       <c r="F30" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="9" t="str">
         <f t="shared" si="4"/>
@@ -1687,7 +1687,7 @@
         <v>2023</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>51</v>
@@ -1699,7 +1699,7 @@
         <v>27</v>
       </c>
       <c r="F31" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="9" t="str">
         <f t="shared" ref="G31:G32" si="5">IF(OR(AND(F31&gt;1,F31&lt;&gt;"-")),"Can exchange","")</f>
@@ -1711,7 +1711,7 @@
         <v>2023</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>51</v>
@@ -1723,7 +1723,7 @@
         <v>27</v>
       </c>
       <c r="F32" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="9" t="str">
         <f t="shared" si="5"/>
@@ -1735,7 +1735,7 @@
         <v>2024</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33" s="25" t="s">
         <v>51</v>
@@ -1757,7 +1757,7 @@
         <v>2024</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>51</v>

--- a/Collections/EURO/Greece/#EURO#Greece#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Greece/#EURO#Greece#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A164A3-D17F-44E0-882D-FCE4CC097010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972BB42F-261A-4BB4-BAA0-D0EFAD2FBD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8040" yWindow="3070" windowWidth="26900" windowHeight="16750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -553,15 +553,14 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="17">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -659,6 +658,23 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -680,9 +696,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="15" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -957,7 +973,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1394,7 +1410,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>2016</v>
       </c>
@@ -1519,7 +1535,7 @@
         <v>2019</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>51</v>
@@ -1543,7 +1559,7 @@
         <v>2019</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>51</v>
@@ -1780,12 +1796,29 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3 F6 F8:F25">
-    <cfRule type="containsText" dxfId="14" priority="25" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3 F6 F8:F23">
+    <cfRule type="containsText" dxfId="13" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6 F3 F8:F25">
+  <conditionalFormatting sqref="F3 F6 F8:F23">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1797,12 +1830,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1814,12 +1864,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="F26:F27">
+    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26:F27">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1831,12 +1881,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="F28">
+    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1848,12 +1898,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F27">
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F27">
+  <conditionalFormatting sqref="F29">
+    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1865,12 +1915,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
+  <conditionalFormatting sqref="F30">
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1882,12 +1932,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
+  <conditionalFormatting sqref="F31">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1899,12 +1949,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
+  <conditionalFormatting sqref="F32">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1916,12 +1966,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
+  <conditionalFormatting sqref="F33">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1933,12 +1983,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
+  <conditionalFormatting sqref="F34">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1950,12 +2000,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
+  <conditionalFormatting sqref="F25">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1967,12 +2017,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
+  <conditionalFormatting sqref="F24">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Greece/#EURO#Greece#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Greece/#EURO#Greece#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972BB42F-261A-4BB4-BAA0-D0EFAD2FBD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF09EEE-44C8-410D-9D2A-A452C8F7CEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8040" yWindow="3070" windowWidth="26900" windowHeight="16750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <author>Илюшин Алексей</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="69">
   <si>
     <t>Year</t>
   </si>
@@ -89,12 +89,6 @@
   </si>
   <si>
     <t>2€</t>
-  </si>
-  <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
   </si>
   <si>
     <t>-</t>
@@ -239,27 +233,9 @@
     <t>100th anniversary of the union of Thrace with Greece</t>
   </si>
   <si>
-    <t>Greek Revolution</t>
-  </si>
-  <si>
     <t>Erasmus Programme</t>
   </si>
   <si>
-    <t>First Greek Constitution</t>
-  </si>
-  <si>
-    <t>Constantin Carathéodory</t>
-  </si>
-  <si>
-    <t>Maria Callas</t>
-  </si>
-  <si>
-    <t>Penelope Delta</t>
-  </si>
-  <si>
-    <t>Restoration of Democracy in Greece</t>
-  </si>
-  <si>
     <t>1.500.000</t>
   </si>
   <si>
@@ -267,6 +243,48 @@
   </si>
   <si>
     <t>2500th Anniversary of the Battle of Thermopylae</t>
+  </si>
+  <si>
+    <t>Subtype_1#Series</t>
+  </si>
+  <si>
+    <t>Subtype_2#Mint_Symbol</t>
+  </si>
+  <si>
+    <t>Subtype_3#Map_of_Europe</t>
+  </si>
+  <si>
+    <t>Treaty of Rome</t>
+  </si>
+  <si>
+    <t>10 Years of EMU</t>
+  </si>
+  <si>
+    <t>10th Anniversary - Euro Coins and Banknotes</t>
+  </si>
+  <si>
+    <t>European Union flag</t>
+  </si>
+  <si>
+    <t>35th Anniversary - Erasmus Programme</t>
+  </si>
+  <si>
+    <t>150th Anniversary - Birth of Penelope Delta</t>
+  </si>
+  <si>
+    <t>50th Anniversary - Restoration of Democracy in Greece</t>
+  </si>
+  <si>
+    <t>100th Anniversary - Birth of Maria Callas</t>
+  </si>
+  <si>
+    <t>150th Anniversary - Birth of Constantin Carathéodory</t>
+  </si>
+  <si>
+    <t>200th Anniversary - First Greek Constitution</t>
+  </si>
+  <si>
+    <t>200th Anniversary - Greek Revolution</t>
   </si>
 </sst>
 </file>
@@ -411,17 +429,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -462,13 +469,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -485,7 +501,7 @@
     <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -495,7 +511,7 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -517,7 +533,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -532,19 +548,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -967,825 +986,875 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
     <col min="2" max="2" width="48.7265625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="3" max="4" width="37" style="11" customWidth="1"/>
+    <col min="5" max="5" width="27.36328125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="29"/>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="30"/>
+      <c r="F1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2004</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="8">
+        <v>26</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="8">
         <v>0</v>
       </c>
-      <c r="G3" s="9" t="str">
-        <f t="shared" ref="G3:G13" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="9" t="str">
+        <f t="shared" ref="H3:H13" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2005</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="9" t="str">
+        <v>4</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>2006</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="9" t="str">
+        <v>4</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>2007</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="8">
+        <v>58</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="8">
         <v>1</v>
       </c>
-      <c r="G6" s="9" t="str">
+      <c r="H6" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>2008</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>6</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C7" s="10"/>
       <c r="D7" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="9" t="str">
+        <v>4</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>2009</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="8">
+        <v>59</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="8">
         <v>1</v>
       </c>
-      <c r="G8" s="9" t="str">
+      <c r="H8" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>2010</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="8">
+        <v>29</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="8">
         <v>0</v>
       </c>
-      <c r="G9" s="9" t="str">
+      <c r="H9" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>2011</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="8">
+        <v>30</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="8">
         <v>1</v>
       </c>
-      <c r="G10" s="9" t="str">
+      <c r="H10" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>2012</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="8">
+        <v>31</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="8">
         <v>1</v>
       </c>
-      <c r="G11" s="9" t="str">
+      <c r="H11" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>2013</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="8">
+        <v>33</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="8">
         <v>0</v>
       </c>
-      <c r="G12" s="9" t="str">
+      <c r="H12" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>2013</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="8">
+        <v>32</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="8">
         <v>0</v>
       </c>
-      <c r="G13" s="9" t="str">
+      <c r="H13" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>2014</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="8">
+        <v>34</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="8">
         <v>0</v>
       </c>
-      <c r="G14" s="9" t="str">
-        <f t="shared" ref="G14:G25" si="1">IF(OR(AND(F14&gt;1,F14&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H14" s="9" t="str">
+        <f t="shared" ref="H14:H25" si="1">IF(OR(AND(G14&gt;1,G14&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>2014</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="8">
+        <v>35</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="8">
         <v>0</v>
       </c>
-      <c r="G15" s="9" t="str">
+      <c r="H15" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>2015</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="8">
+        <v>36</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="8">
         <v>1</v>
       </c>
-      <c r="G16" s="9" t="str">
+      <c r="H16" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>2015</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="8">
+        <v>61</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="8">
         <v>1</v>
       </c>
-      <c r="G17" s="9" t="str">
+      <c r="H17" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>2016</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="8">
+        <v>38</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="8">
         <v>1</v>
       </c>
-      <c r="G18" s="9" t="str">
+      <c r="H18" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>2016</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="8">
+        <v>41</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="8">
         <v>1</v>
       </c>
-      <c r="G19" s="9" t="str">
+      <c r="H19" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>2017</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="8">
+        <v>39</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="8">
         <v>1</v>
       </c>
-      <c r="G20" s="9" t="str">
+      <c r="H20" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>2017</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="8">
+        <v>40</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="8">
         <v>1</v>
       </c>
-      <c r="G21" s="9" t="str">
+      <c r="H21" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>2018</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="8">
+        <v>42</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="8">
         <v>1</v>
       </c>
-      <c r="G22" s="9" t="str">
+      <c r="H22" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>2018</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="8">
+        <v>43</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="8">
         <v>1</v>
       </c>
-      <c r="G23" s="9" t="str">
+      <c r="H23" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>2019</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="8">
+        <v>45</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="8">
         <v>1</v>
       </c>
-      <c r="G24" s="9" t="str">
+      <c r="H24" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>2019</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="8">
+        <v>44</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="8">
         <v>1</v>
       </c>
-      <c r="G25" s="9" t="str">
+      <c r="H25" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>2020</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="8">
+        <v>54</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="8">
         <v>1</v>
       </c>
-      <c r="G26" s="9" t="str">
-        <f t="shared" ref="G26:G27" si="2">IF(OR(AND(F26&gt;1,F26&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H26" s="9" t="str">
+        <f t="shared" ref="H26:H27" si="2">IF(OR(AND(G26&gt;1,G26&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>2020</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="8">
+        <v>50</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="8">
         <v>1</v>
       </c>
-      <c r="G27" s="9" t="str">
+      <c r="H27" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>2021</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" s="8">
+        <v>68</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="8">
         <v>1</v>
       </c>
-      <c r="G28" s="9" t="str">
-        <f t="shared" ref="G28" si="3">IF(OR(AND(F28&gt;1,F28&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H28" s="9" t="str">
+        <f t="shared" ref="H28" si="3">IF(OR(AND(G28&gt;1,G28&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>2022</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="8">
+      <c r="D29" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="8">
         <v>1</v>
       </c>
-      <c r="G29" s="9" t="str">
-        <f t="shared" ref="G29:G30" si="4">IF(OR(AND(F29&gt;1,F29&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H29" s="9" t="str">
+        <f t="shared" ref="H29:H30" si="4">IF(OR(AND(G29&gt;1,G29&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>2022</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="8">
+        <v>67</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="8">
         <v>1</v>
       </c>
-      <c r="G30" s="9" t="str">
+      <c r="H30" s="9" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>2023</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="8">
+        <v>66</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="8">
         <v>1</v>
       </c>
-      <c r="G31" s="9" t="str">
-        <f t="shared" ref="G31:G32" si="5">IF(OR(AND(F31&gt;1,F31&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H31" s="9" t="str">
+        <f t="shared" ref="H31:H32" si="5">IF(OR(AND(G31&gt;1,G31&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>2023</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" s="8">
+        <v>65</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="8">
         <v>1</v>
       </c>
-      <c r="G32" s="9" t="str">
+      <c r="H32" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>2024</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="8">
+        <v>63</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="22"/>
+      <c r="G33" s="8">
         <v>0</v>
       </c>
-      <c r="G33" s="9" t="str">
-        <f t="shared" ref="G33:G34" si="6">IF(OR(AND(F33&gt;1,F33&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H33" s="9" t="str">
+        <f t="shared" ref="H33:H34" si="6">IF(OR(AND(G33&gt;1,G33&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>2024</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="8">
+        <v>64</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="22"/>
+      <c r="G34" s="8">
         <v>0</v>
       </c>
-      <c r="G34" s="9" t="str">
+      <c r="H34" s="9" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -1794,14 +1863,14 @@
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3 F6 F8:F23">
+  <conditionalFormatting sqref="G3 G6 G8:G23">
     <cfRule type="containsText" dxfId="13" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F6 F8:F23">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3 G6 G8:G23">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1813,12 +1882,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
+  <conditionalFormatting sqref="G4">
     <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1830,12 +1899,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="G5">
     <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1847,12 +1916,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="G7">
     <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1864,12 +1933,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F27">
+  <conditionalFormatting sqref="G26:G27">
     <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F27">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26:G27">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1881,12 +1950,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
+  <conditionalFormatting sqref="G28">
     <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1898,12 +1967,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
+  <conditionalFormatting sqref="G29">
     <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1915,12 +1984,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
+  <conditionalFormatting sqref="G30">
     <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1932,12 +2001,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
+  <conditionalFormatting sqref="G31">
     <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1949,12 +2018,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
+  <conditionalFormatting sqref="G32">
     <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1966,12 +2035,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
+  <conditionalFormatting sqref="G33">
     <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1983,12 +2052,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
+  <conditionalFormatting sqref="G34">
     <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2000,12 +2069,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
+  <conditionalFormatting sqref="G25">
     <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2017,12 +2086,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
+  <conditionalFormatting sqref="G24">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2057,13 +2126,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -2071,10 +2140,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2082,10 +2151,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2093,10 +2162,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2104,10 +2173,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2115,10 +2184,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -2126,10 +2195,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>48</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Greece/#EURO#Greece#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Greece/#EURO#Greece#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF09EEE-44C8-410D-9D2A-A452C8F7CEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBC9AB9-66F5-4F09-8B17-C363E796D6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="1110" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -269,9 +269,6 @@
     <t>35th Anniversary - Erasmus Programme</t>
   </si>
   <si>
-    <t>150th Anniversary - Birth of Penelope Delta</t>
-  </si>
-  <si>
     <t>50th Anniversary - Restoration of Democracy in Greece</t>
   </si>
   <si>
@@ -285,6 +282,9 @@
   </si>
   <si>
     <t>200th Anniversary - Greek Revolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100th Anniversary of the children's book author Pénélope Delta	</t>
   </si>
 </sst>
 </file>
@@ -574,6 +574,15 @@
   </cellStyles>
   <dxfs count="17">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -685,15 +694,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -715,9 +715,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="15" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -992,7 +992,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1691,7 +1691,7 @@
         <v>2021</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="25" t="s">
@@ -1743,7 +1743,7 @@
         <v>2022</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="25"/>
       <c r="D30" s="25" t="s">
@@ -1768,7 +1768,7 @@
         <v>2023</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="25" t="s">
@@ -1793,7 +1793,7 @@
         <v>2023</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="25"/>
       <c r="D32" s="25" t="s">
@@ -1818,7 +1818,7 @@
         <v>2024</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="25" t="s">
@@ -1841,7 +1841,7 @@
         <v>2024</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="25" t="s">
@@ -1866,11 +1866,11 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3 G6 G8:G23">
-    <cfRule type="containsText" dxfId="13" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3 G6 G8:G23">
+  <conditionalFormatting sqref="G6 G3 G8:G23">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1883,7 +1883,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1900,7 +1900,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1917,7 +1917,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1934,7 +1934,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1951,7 +1951,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1968,7 +1968,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1985,7 +1985,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2002,7 +2002,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2019,7 +2019,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2036,7 +2036,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2053,7 +2053,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2070,7 +2070,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2087,7 +2087,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/Greece/#EURO#Greece#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Greece/#EURO#Greece#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBC9AB9-66F5-4F09-8B17-C363E796D6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A19BC6-E003-4111-A10E-3B8A4A2CD7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="1110" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -992,7 +992,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1066,7 +1066,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="9" t="str">
         <f t="shared" ref="H3:H13" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
@@ -1225,7 +1225,7 @@
         <v>22</v>
       </c>
       <c r="G9" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1302,7 +1302,7 @@
         <v>24</v>
       </c>
       <c r="G12" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1327,7 +1327,7 @@
         <v>24</v>
       </c>
       <c r="G13" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1352,7 +1352,7 @@
         <v>25</v>
       </c>
       <c r="G14" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="9" t="str">
         <f t="shared" ref="H14:H25" si="1">IF(OR(AND(G14&gt;1,G14&lt;&gt;"-")),"Can exchange","")</f>
@@ -1377,7 +1377,7 @@
         <v>25</v>
       </c>
       <c r="G15" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1870,7 +1870,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6 G3 G8:G23">
+  <conditionalFormatting sqref="G3 G6 G8:G23">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Greece/#EURO#Greece#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Greece/#EURO#Greece#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A19BC6-E003-4111-A10E-3B8A4A2CD7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A573D6-AC35-474E-888C-8C6232E53928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7040" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="69">
   <si>
     <t>Year</t>
   </si>
@@ -992,7 +992,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1827,7 +1827,9 @@
       <c r="E33" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="22"/>
+      <c r="F33" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="G33" s="8">
         <v>0</v>
       </c>
@@ -1850,7 +1852,9 @@
       <c r="E34" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="22"/>
+      <c r="F34" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="G34" s="8">
         <v>0</v>
       </c>
@@ -1870,7 +1874,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3 G6 G8:G23">
+  <conditionalFormatting sqref="G6 G3 G8:G23">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Greece/#EURO#Greece#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Greece/#EURO#Greece#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A573D6-AC35-474E-888C-8C6232E53928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3B4DA6-AEC2-47B9-9145-4D4223431A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7040" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5660" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -992,7 +992,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1831,7 +1831,7 @@
         <v>25</v>
       </c>
       <c r="G33" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="9" t="str">
         <f t="shared" ref="H33:H34" si="6">IF(OR(AND(G33&gt;1,G33&lt;&gt;"-")),"Can exchange","")</f>
@@ -1856,7 +1856,7 @@
         <v>25</v>
       </c>
       <c r="G34" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="9" t="str">
         <f t="shared" si="6"/>
@@ -1874,7 +1874,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6 G3 G8:G23">
+  <conditionalFormatting sqref="G3 G6 G8:G23">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Greece/#EURO#Greece#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Greece/#EURO#Greece#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3B4DA6-AEC2-47B9-9145-4D4223431A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B9022F-DC7F-4361-9162-48D2769B223B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -572,7 +572,23 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -715,9 +731,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -986,13 +1002,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
+      <selection pane="bottomRight" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1834,7 +1850,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="9" t="str">
-        <f t="shared" ref="H33:H34" si="6">IF(OR(AND(G33&gt;1,G33&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="H33:H36" si="6">IF(OR(AND(G33&gt;1,G33&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1859,6 +1875,36 @@
         <v>1</v>
       </c>
       <c r="H34" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="9" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -1870,11 +1916,28 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3 G6 G8:G23">
-    <cfRule type="containsText" dxfId="16" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3 G6 G8:G23">
+  <conditionalFormatting sqref="G6 G3 G8:G23">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1886,12 +1949,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
+  <conditionalFormatting sqref="G5">
+    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
     <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1903,12 +1983,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
+  <conditionalFormatting sqref="G26:G27">
     <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26:G27">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1920,12 +2000,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
+  <conditionalFormatting sqref="G28">
     <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1937,12 +2017,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26:G27">
+  <conditionalFormatting sqref="G29">
     <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26:G27">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1954,12 +2034,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
+  <conditionalFormatting sqref="G30">
     <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1971,12 +2051,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="G31">
     <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1988,12 +2068,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
+  <conditionalFormatting sqref="G32">
     <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2005,12 +2085,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
+  <conditionalFormatting sqref="G33">
     <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2022,12 +2102,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
+  <conditionalFormatting sqref="G34">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2039,12 +2119,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
+  <conditionalFormatting sqref="G25">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2056,12 +2136,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
+  <conditionalFormatting sqref="G24">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2073,12 +2153,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
+  <conditionalFormatting sqref="G35">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2090,12 +2170,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
+  <conditionalFormatting sqref="G36">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Greece/#EURO#Greece#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Greece/#EURO#Greece#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B9022F-DC7F-4361-9162-48D2769B223B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A4A702-A2F4-4C73-8C7C-FCD267AA4036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2€'!$B$2:$F$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -248,9 +251,6 @@
     <t>Subtype_1#Series</t>
   </si>
   <si>
-    <t>Subtype_2#Mint_Symbol</t>
-  </si>
-  <si>
     <t>Subtype_3#Map_of_Europe</t>
   </si>
   <si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t xml:space="preserve">100th Anniversary of the children's book author Pénélope Delta	</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_marks_1</t>
   </si>
 </sst>
 </file>
@@ -484,7 +487,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -550,6 +553,9 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -573,6 +579,15 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="19">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -588,15 +603,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -731,9 +737,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1008,34 +1014,31 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A36" sqref="A36"/>
+      <selection pane="bottomRight" activeCell="A38" sqref="A38:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="11" customWidth="1"/>
-    <col min="3" max="4" width="37" style="11" customWidth="1"/>
-    <col min="5" max="5" width="27.36328125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="11" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="11" customWidth="1"/>
     <col min="9" max="9" width="14.26953125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
       <c r="F1" s="19" t="s">
         <v>2</v>
       </c>
@@ -1045,16 +1048,18 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="26" t="s">
+        <v>53</v>
+      </c>
       <c r="C2" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>17</v>
@@ -1151,7 +1156,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>49</v>
@@ -1203,7 +1208,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>49</v>
@@ -1278,7 +1283,7 @@
         <v>2012</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>31</v>
@@ -1433,7 +1438,7 @@
         <v>37</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>49</v>
@@ -1707,7 +1712,7 @@
         <v>2021</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="25" t="s">
@@ -1732,7 +1737,7 @@
         <v>2022</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>51</v>
@@ -1759,7 +1764,7 @@
         <v>2022</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="25"/>
       <c r="D30" s="25" t="s">
@@ -1784,7 +1789,7 @@
         <v>2023</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="25" t="s">
@@ -1809,7 +1814,7 @@
         <v>2023</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" s="25"/>
       <c r="D32" s="25" t="s">
@@ -1834,7 +1839,7 @@
         <v>2024</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="25" t="s">
@@ -1859,7 +1864,7 @@
         <v>2024</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="25" t="s">
@@ -1910,9 +1915,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3 G6 G8:G23">
@@ -1920,7 +1925,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6 G3 G8:G23">
+  <conditionalFormatting sqref="G3 G6 G8:G23">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2154,7 +2159,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2171,7 +2176,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G36))))</formula>
     </cfRule>
   </conditionalFormatting>
